--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epcorn\OneDrive\Desktop\Contract\tmp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558E667-765A-4FD6-9BBA-ACE88CF15FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D5FA38-7C73-4C4D-B739-7618035F1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Contract Number</t>
   </si>
@@ -48,6 +38,44 @@
     <t>Technician Name</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Customer Care No: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800 267 7039 / 8976320030</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solution@pestmanagements.in</t>
+    </r>
+  </si>
+  <si>
     <t>Image 1</t>
   </si>
   <si>
@@ -55,13 +83,29 @@
   </si>
   <si>
     <t>Image 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Service Report</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +121,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,28 +183,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -134,25 +211,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -176,50 +273,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1066799</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
+      <xdr:rowOff>1219199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F0A4B1-41AE-EC5E-9843-28F78C1A084F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6451A0B2-9E43-4BA9-8537-0A48E329E7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3181350" y="0"/>
-          <a:ext cx="2990849" cy="866775"/>
+          <a:off x="1104900" y="0"/>
+          <a:ext cx="2990850" cy="1219199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -238,44 +338,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,12 +405,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -349,311 +449,434 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D5FA38-7C73-4C4D-B739-7618035F1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FE17A-2373-4897-BD01-596AE0E6510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,22 +235,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,22 +274,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:colOff>1019175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1219199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6451A0B2-9E43-4BA9-8537-0A48E329E7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D51C2C-0409-4F58-834D-49217F491AE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,7 +310,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1104900" y="0"/>
+          <a:off x="1019175" y="0"/>
           <a:ext cx="2990850" cy="1219199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -652,7 +652,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,65 +664,66 @@
     <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -734,9 +735,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="8"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -746,9 +747,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -758,9 +759,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -770,9 +771,9 @@
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -782,9 +783,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -794,9 +795,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -806,9 +807,9 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -818,9 +819,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -830,9 +831,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -842,9 +843,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -854,9 +855,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -866,9 +867,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FE17A-2373-4897-BD01-596AE0E6510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF3D238-A4DF-4CCD-9268-49EA918204FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,27 +273,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1219199</xdr:rowOff>
+      <xdr:rowOff>1228726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D51C2C-0409-4F58-834D-49217F491AE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC54C3C5-1C88-019D-F710-17310653C413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
@@ -303,23 +305,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="0"/>
-          <a:ext cx="2990850" cy="1219199"/>
+          <a:off x="1400175" y="28576"/>
+          <a:ext cx="2847975" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>

--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF3D238-A4DF-4CCD-9268-49EA918204FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,31 +273,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1228726</xdr:rowOff>
+      <xdr:rowOff>1234440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC54C3C5-1C88-019D-F710-17310653C413}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -311,8 +304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="28576"/>
-          <a:ext cx="2847975" cy="1200150"/>
+          <a:off x="1699260" y="0"/>
+          <a:ext cx="2484120" cy="1234440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,26 +638,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.28515625" customWidth="1"/>
+    <col min="8" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -678,7 +671,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
@@ -692,7 +685,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -724,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
@@ -736,7 +729,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
@@ -748,7 +741,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
@@ -760,7 +753,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
@@ -772,7 +765,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
@@ -784,7 +777,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
@@ -796,7 +789,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
@@ -808,7 +801,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
@@ -820,7 +813,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
@@ -832,7 +825,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
@@ -844,7 +837,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
@@ -856,7 +849,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>

--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929F4BD-FA4E-4D02-AD72-6CF8A684EC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,25 +274,31 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208390</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1234440</xdr:rowOff>
+      <xdr:rowOff>1238250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E1AB60-99FC-FB28-61A8-532B7BD858BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -304,8 +311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1699260" y="0"/>
-          <a:ext cx="2484120" cy="1234440"/>
+          <a:off x="1581150" y="38100"/>
+          <a:ext cx="2751565" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,26 +645,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.33203125" customWidth="1"/>
+    <col min="8" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -671,7 +678,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
@@ -685,7 +692,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -717,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
@@ -729,7 +736,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
@@ -741,7 +748,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
@@ -753,7 +760,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
@@ -765,7 +772,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
@@ -777,7 +784,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
@@ -789,7 +796,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
@@ -801,7 +808,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
@@ -813,7 +820,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
@@ -825,7 +832,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
@@ -837,7 +844,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
@@ -849,7 +856,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>

--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929F4BD-FA4E-4D02-AD72-6CF8A684EC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9FB32-72F1-46DF-8264-4BF3DA5524CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Contract Number</t>
   </si>
@@ -99,6 +99,9 @@
       </rPr>
       <t xml:space="preserve"> Service Report</t>
     </r>
+  </si>
+  <si>
+    <t>Client Name</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -226,19 +229,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,13 +266,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>208390</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1238250</xdr:rowOff>
@@ -646,232 +639,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9FB32-72F1-46DF-8264-4BF3DA5524CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411933F-0839-40AE-9FD9-08EC4BD6684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,6 @@
   </si>
   <si>
     <t>Service Type</t>
-  </si>
-  <si>
-    <t>Service Status</t>
-  </si>
-  <si>
-    <t>Service Date</t>
   </si>
   <si>
     <t>Technician Comment</t>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>Client Name</t>
+  </si>
+  <si>
+    <t>Visit Status</t>
+  </si>
+  <si>
+    <t>Visit Date</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -702,25 +702,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">

--- a/tmp/report.xlsx
+++ b/tmp/report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411933F-0839-40AE-9FD9-08EC4BD6684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A2F38B-6FF3-4838-AA82-DCB0ED9EC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,23 +266,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>99928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>208390</xdr:colOff>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1238250</xdr:rowOff>
+      <xdr:rowOff>1159505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E1AB60-99FC-FB28-61A8-532B7BD858BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177238C7-76CE-F566-3861-0A5CCF98D33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -304,8 +304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="38100"/>
-          <a:ext cx="2751565" cy="1200150"/>
+          <a:off x="3718560" y="99928"/>
+          <a:ext cx="1988820" cy="1059577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,24 +641,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.28515625" style="4" customWidth="1"/>
+    <col min="9" max="11" width="10.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -736,7 +736,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -749,7 +749,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -762,7 +762,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -775,7 +775,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -788,7 +788,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -801,7 +801,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -814,7 +814,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -827,7 +827,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -840,7 +840,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -853,7 +853,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -866,7 +866,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
